--- a/NEW HR/DONE/BATHAN, ELVIRA.xlsx
+++ b/NEW HR/DONE/BATHAN, ELVIRA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -715,17 +715,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -735,6 +732,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1627,7 +1627,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,14 +1657,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1676,16 +1676,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>38362</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1699,14 +1699,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1739,18 +1739,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1807,7 +1807,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>53.5</v>
+        <v>55</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3401,15 +3401,19 @@
       <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
+      <c r="A85" s="43">
+        <v>45047</v>
+      </c>
       <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="42"/>
       <c r="E85" s="10"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="42"/>
       <c r="I85" s="10"/>
@@ -3417,15 +3421,19 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="43"/>
+      <c r="A86" s="43">
+        <v>45078</v>
+      </c>
       <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="42"/>
       <c r="E86" s="10"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="42"/>
       <c r="I86" s="10"/>
@@ -3433,8 +3441,12 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="43"/>
-      <c r="B87" s="21"/>
+      <c r="A87" s="43">
+        <v>45108</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C87" s="14"/>
       <c r="D87" s="42"/>
       <c r="E87" s="10"/>
@@ -3443,10 +3455,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H87" s="42"/>
+      <c r="H87" s="42">
+        <v>1</v>
+      </c>
       <c r="I87" s="10"/>
       <c r="J87" s="12"/>
-      <c r="K87" s="21"/>
+      <c r="K87" s="50">
+        <v>45118</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
@@ -3690,17 +3706,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3738,7 +3754,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3768,14 +3784,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3787,16 +3803,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>38362</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3810,14 +3826,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3850,18 +3866,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4507,7 +4523,7 @@
       <c r="H36" s="42"/>
       <c r="I36" s="10"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="21"/>
+      <c r="K36" s="50"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>

--- a/NEW HR/DONE/BATHAN, ELVIRA.xlsx
+++ b/NEW HR/DONE/BATHAN, ELVIRA.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>PERIOD</t>
   </si>
@@ -715,14 +715,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -732,9 +735,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1625,9 +1625,9 @@
   <dimension ref="A2:K102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="I90" sqref="I90"/>
+      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,14 +1657,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1676,16 +1676,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>38362</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1699,14 +1699,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1739,18 +1739,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>50</v>
+        <v>52.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1807,7 +1807,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>55</v>
+        <v>57.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3447,13 +3447,15 @@
       <c r="B87" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="14"/>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="42"/>
       <c r="E87" s="10"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="42">
         <v>1</v>
@@ -3465,23 +3467,33 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="43"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
+      <c r="A88" s="43">
+        <v>45139</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="42"/>
       <c r="E88" s="10"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="42"/>
       <c r="I88" s="10"/>
       <c r="J88" s="12"/>
-      <c r="K88" s="21"/>
+      <c r="K88" s="50">
+        <v>45156</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
+      <c r="A89" s="43">
+        <v>45170</v>
+      </c>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
       <c r="D89" s="42"/>
@@ -3497,7 +3509,9 @@
       <c r="K89" s="21"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
+      <c r="A90" s="43">
+        <v>45200</v>
+      </c>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
       <c r="D90" s="42"/>
@@ -3706,17 +3720,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3784,14 +3798,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3803,16 +3817,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>38362</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3826,14 +3840,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3866,18 +3880,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
